--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461167.7614341774</v>
+        <v>464517.8280651653</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346308</v>
+        <v>3854815.050462389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7637831.152483407</v>
+        <v>7582593.0586675</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>141.4871489151953</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>151.4547340816844</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.52529077486061</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>150.7964460471118</v>
+        <v>139.453810411355</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -984,7 +986,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880557002</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1029,7 +1031,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>207.9625118881444</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>281.1958172035847</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>320.2430998025018</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>128.7880777047342</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4670423587852</v>
+        <v>42.63990273888884</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1436,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>153.121093124006</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>336.6327140501638</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>79.46382173852901</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1822,10 +1824,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W16" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>161.4085122120583</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>304.0074039714629</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>127.7349619690958</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>291.6745690516124</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>322.5806213200719</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>43.10686148368509</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2333,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>19.72182071016206</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>233.2385090293388</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>25.52186057040795</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>113.1667354347872</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>316.5413684189589</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>193.3833494998478</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.836713037499926</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>366.5742128341137</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.81863829711325</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.3052705552995</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>161.4085122120593</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>313.2666781675496</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.3149947016333</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3253,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>116.8763835457725</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>305.6096491809498</v>
       </c>
       <c r="H35" t="n">
-        <v>25.35996799970785</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>42.22674935012078</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.0197294728313</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>140.76122967259</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>159.3149947016331</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>119.8267326610451</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>305.6096491809507</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>144.4555958010352</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3834,7 +3836,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
         <v>48.89338144820752</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>84.78215756420502</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>365.6774722162032</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3351562371461</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4058,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>96.80349067878367</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -4141,22 +4143,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.38878182311346</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.299222104186</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C2" t="n">
-        <v>607.1237206071166</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D2" t="n">
-        <v>607.1237206071166</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E2" t="n">
-        <v>607.1237206071166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F2" t="n">
-        <v>190.2292821370944</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>190.2292821370944</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="X2" t="n">
-        <v>1396.789931183585</v>
+        <v>988.3222036488206</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000.299222104186</v>
+        <v>835.3376237683314</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M3" t="n">
-        <v>1029.265125924707</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C4" t="n">
-        <v>778.5548747090853</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D4" t="n">
-        <v>622.9217616116</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E4" t="n">
-        <v>467.3629494708025</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0370146837755</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G4" t="n">
-        <v>141.782960783221</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.891511373431</v>
+        <v>581.3509063575575</v>
       </c>
       <c r="C5" t="n">
-        <v>1153.716009876361</v>
+        <v>188.1754048604881</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.396367404531</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E5" t="n">
-        <v>598.8128425210757</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>173.6308686433306</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>173.6308686433306</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>666.9511603618595</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>1943.38222045283</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V5" t="n">
-        <v>1943.38222045283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W5" t="n">
-        <v>1943.38222045283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X5" t="n">
-        <v>1943.38222045283</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.891511373431</v>
+        <v>981.8456520689545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
         <v>305.0574584171666</v>
@@ -4638,16 +4640,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L6" t="n">
         <v>530.8790559998569</v>
@@ -4656,40 +4658,40 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1641.675880777398</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.500379280328</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="D8" t="n">
-        <v>863.0592504969959</v>
+        <v>793.7693164361081</v>
       </c>
       <c r="E8" t="n">
-        <v>460.4757256135405</v>
+        <v>793.7693164361081</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y8" t="n">
-        <v>2042.170626488795</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>71.09994889437422</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>554.6660347926875</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1208.706155899126</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="C11" t="n">
-        <v>1208.706155899126</v>
+        <v>614.1618246195715</v>
       </c>
       <c r="D11" t="n">
-        <v>823.2650271157934</v>
+        <v>228.7206958362392</v>
       </c>
       <c r="E11" t="n">
-        <v>823.2650271157934</v>
+        <v>228.7206958362392</v>
       </c>
       <c r="F11" t="n">
-        <v>406.3705886457711</v>
+        <v>228.7206958362392</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M11" t="n">
-        <v>899.6156178475343</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W11" t="n">
-        <v>1994.649470045468</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X11" t="n">
-        <v>1605.196864978524</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y11" t="n">
-        <v>1208.706155899126</v>
+        <v>1007.337326116641</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.141762214911</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C14" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U14" t="n">
-        <v>2285.382018472606</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V14" t="n">
-        <v>1943.275209176124</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W14" t="n">
-        <v>1943.275209176124</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X14" t="n">
-        <v>1553.822604109181</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1157.331895029782</v>
+        <v>387.3460145966586</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L15" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>623.6437572083089</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T16" t="n">
-        <v>713.0409408113302</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U16" t="n">
-        <v>427.6021490532311</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6228038740554</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N17" t="n">
-        <v>1832.61545280471</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X17" t="n">
-        <v>2058.57031924742</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y17" t="n">
-        <v>2058.57031924742</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>819.7347785328983</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W19" t="n">
-        <v>161.6228038740554</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1253.898513496514</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C20" t="n">
-        <v>860.7230119994447</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D20" t="n">
-        <v>475.2818832161124</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E20" t="n">
-        <v>475.2818832161124</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F20" t="n">
-        <v>475.2818832161124</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>2811.335608385966</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W20" t="n">
-        <v>2440.336573354253</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.88396828731</v>
+        <v>2039.809493642763</v>
       </c>
       <c r="Y20" t="n">
-        <v>1654.393259207911</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.345081003587</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C22" t="n">
-        <v>261.1399630695762</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D22" t="n">
-        <v>217.5976787426216</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E22" t="n">
-        <v>217.5976787426216</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F22" t="n">
-        <v>217.5976787426216</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y22" t="n">
-        <v>616.5530996948883</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.376476849992</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="C23" t="n">
-        <v>1680.200975352922</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2307.734560342335</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2307.734560342335</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>1965.627751045854</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="X23" t="n">
-        <v>2870.361931640788</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="Y23" t="n">
-        <v>2473.871222561389</v>
+        <v>1594.628716014141</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>822.3203958792419</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>822.3203958792419</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>1305.886481777555</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1933.658131404236</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N24" t="n">
-        <v>2589.436102614795</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O24" t="n">
-        <v>3105.956385205776</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>3105.956385205776</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>398.9308582748658</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>228.7257403408551</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>73.0926272433698</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T25" t="n">
-        <v>2870.237333374011</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U25" t="n">
-        <v>2584.798541615912</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V25" t="n">
-        <v>2318.819196436736</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W25" t="n">
-        <v>2318.819196436736</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>398.9308582748658</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1201.453214517072</v>
+        <v>1579.705190930837</v>
       </c>
       <c r="C26" t="n">
-        <v>1201.453214517072</v>
+        <v>1186.529689433768</v>
       </c>
       <c r="D26" t="n">
-        <v>1201.453214517072</v>
+        <v>1186.529689433768</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.453214517072</v>
+        <v>783.9461645503122</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>367.05172608029</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X26" t="n">
-        <v>1201.453214517072</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y26" t="n">
-        <v>1201.453214517072</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998575</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.37706100646</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.875066013062</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604043</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X27" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E28" t="n">
-        <v>2078.354447624637</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G28" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H28" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>2080.209713319081</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>2080.209713319081</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y28" t="n">
-        <v>2080.209713319081</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1154.835758707771</v>
+        <v>853.6512271106099</v>
       </c>
       <c r="C29" t="n">
-        <v>1154.835758707771</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="D29" t="n">
-        <v>1154.835758707771</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E29" t="n">
-        <v>1154.835758707771</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2352.700385585146</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2352.700385585146</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2352.700385585146</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071196</v>
+        <v>2352.700385585146</v>
       </c>
       <c r="V29" t="n">
-        <v>1544.288363774714</v>
+        <v>2010.593576288664</v>
       </c>
       <c r="W29" t="n">
-        <v>1544.288363774714</v>
+        <v>1639.594541256952</v>
       </c>
       <c r="X29" t="n">
-        <v>1154.835758707771</v>
+        <v>1250.141936190009</v>
       </c>
       <c r="Y29" t="n">
-        <v>1154.835758707771</v>
+        <v>853.6512271106099</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>194.5661265746808</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>678.1322124729941</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.630217479596</v>
+        <v>1065.665103390099</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8329221200289</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C31" t="n">
-        <v>527.8329221200289</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D31" t="n">
-        <v>527.8329221200289</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>527.8329221200289</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>527.8329221200289</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>359.5788682194744</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6646,25 +6648,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T31" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U31" t="n">
-        <v>713.0409408113302</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V31" t="n">
-        <v>713.0409408113302</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X31" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.3518713258459</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>1183.221921503051</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>780.6383966195958</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>363.7439581495736</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>371.4442765563895</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W32" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X32" t="n">
-        <v>1007.337326116642</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y32" t="n">
-        <v>610.8466170372428</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6773,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
         <v>367.0521161637701</v>
@@ -6786,7 +6788,7 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N33" t="n">
         <v>1209.14176221491</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>2099.669159898004</v>
       </c>
       <c r="W34" t="n">
-        <v>2082.318103008358</v>
+        <v>1816.338757829181</v>
       </c>
       <c r="X34" t="n">
-        <v>1848.237780791341</v>
+        <v>1582.258435612164</v>
       </c>
       <c r="Y34" t="n">
-        <v>1625.125719607984</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>466.1046008912472</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C35" t="n">
-        <v>72.9290993941778</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D35" t="n">
-        <v>72.9290993941778</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="E35" t="n">
-        <v>72.9290993941778</v>
+        <v>772.9040239058586</v>
       </c>
       <c r="F35" t="n">
-        <v>72.9290993941778</v>
+        <v>356.0095854358364</v>
       </c>
       <c r="G35" t="n">
-        <v>72.9290993941778</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>1652.542660748986</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X35" t="n">
-        <v>1263.090055682043</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y35" t="n">
-        <v>866.5993466026441</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T37" t="n">
-        <v>713.0409408113302</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U37" t="n">
-        <v>427.6021490532311</v>
+        <v>343.6705854546174</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6228038740554</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.31297010154361</v>
+        <v>1402.149495227434</v>
       </c>
       <c r="C38" t="n">
-        <v>47.31297010154361</v>
+        <v>1008.973993730365</v>
       </c>
       <c r="D38" t="n">
-        <v>47.31297010154361</v>
+        <v>1008.973993730365</v>
       </c>
       <c r="E38" t="n">
-        <v>47.31297010154361</v>
+        <v>606.3904688469092</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154361</v>
+        <v>189.496030376887</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N38" t="n">
-        <v>1925.608904184852</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T38" t="n">
-        <v>2104.154988922119</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U38" t="n">
-        <v>1848.402259356717</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V38" t="n">
-        <v>1506.295450060236</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W38" t="n">
-        <v>1135.296415028523</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X38" t="n">
-        <v>745.8438099615802</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="Y38" t="n">
-        <v>349.3531008821813</v>
+        <v>1802.644240938831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M39" t="n">
-        <v>1436.116207068686</v>
+        <v>1065.665103390099</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.116207068686</v>
+        <v>1651.163108396701</v>
       </c>
       <c r="O39" t="n">
-        <v>1952.636489659666</v>
+        <v>2167.683390987682</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7354,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>336.6041277001235</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W40" t="n">
-        <v>215.5670240020981</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X40" t="n">
-        <v>215.5670240020981</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.5670240020981</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286385</v>
+        <v>1256.234751994065</v>
       </c>
       <c r="C41" t="n">
-        <v>1175.487548789315</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D41" t="n">
-        <v>866.7909334550213</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E41" t="n">
-        <v>464.2074085715658</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>864.7645682749193</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>2053.220206784861</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1656.729497705462</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1374.529131354181</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1960.027136360783</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>356.0635742790467</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>356.0635742790467</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="X43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.9515130956901</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1625.340624948584</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.340624948584</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>1255.969440891813</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>853.3859160083578</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>442.9463642536647</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>177.1565854077998</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>536.1389414352616</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="L44" t="n">
-        <v>820.7970155990351</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M44" t="n">
-        <v>1223.06882027381</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N44" t="n">
-        <v>1625.340624948584</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y44" t="n">
-        <v>1625.340624948584</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.2881162149148</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>130.2881162149148</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>130.2881162149148</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>145.6217947186991</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>465.3609407809255</v>
+        <v>305.4650404492648</v>
       </c>
       <c r="L45" t="n">
-        <v>867.6327454557002</v>
+        <v>789.031126347578</v>
       </c>
       <c r="M45" t="n">
-        <v>988.7037287189191</v>
+        <v>1374.52913135418</v>
       </c>
       <c r="N45" t="n">
-        <v>1390.975533393694</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O45" t="n">
-        <v>1390.975533393694</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1490.409947848453</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1313.426136047362</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1103.362992726003</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>880.8229910970704</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>650.7057452303573</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>461.3986675803689</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>282.0844506558761</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1298.623551763711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>1298.623551763711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>1298.623551763711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>1143.064739622913</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>985.738804835886</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>985.738804835886</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>887.3662979438521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>754.27187258093</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1501.439635581161</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.623551763711</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.623551763711</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.623551763711</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.623551763711</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>1298.623551763711</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>1298.623551763711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>1298.623551763711</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8058,22 +8060,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>272.8385602943859</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>116.7148101947783</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>245.2736748532421</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8234,7 +8236,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585533</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>400.3730943507983</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,22 +8534,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>113.6241866392229</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>595.8073947006751</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>457.8528328367271</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>647.0581217063165</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8927,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8939,10 +8941,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9006,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,7 +9166,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9173,16 +9175,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
@@ -9249,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>593.869378666369</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9416,10 +9418,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9656,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>117.494503443537</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577839</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,13 +9877,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9957,19 +9959,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10124,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>238.3374974274113</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>230.298030859026</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,25 +10351,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>470.4637632346373</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10434,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095472</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10589,7 +10591,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888783</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10598,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10662,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>388.2984090135462</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10823,7 +10825,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10832,16 +10834,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>277.8952841518213</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>267.5348030643886</v>
+        <v>287.0481265258774</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>470.2375325962349</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>621.5900809302183</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015355</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,25 +11299,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>271.1401458256677</v>
       </c>
       <c r="L44" t="n">
-        <v>440.7815779767276</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>350.3566023512336</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>214.6810445374119</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22547,22 +22549,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>179.355071013979</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,10 +22597,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0710679069205</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22707,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>60.39847475326034</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>230.7902714483872</v>
+        <v>242.1329070841439</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22841,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>131.5296768817373</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.28270218610305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,7 +23260,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>53.56408559809159</v>
+        <v>366.391225217988</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23425,10 +23427,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>2.63158231515078</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23482,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>59.85708420411913</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23510,7 +23512,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,16 +23548,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7313805312183</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W16" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23783,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>59.85708420411922</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>81.55067504481082</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>154.8494418714222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>118.5727835600601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23980,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24026,13 +24028,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>47.01117215190436</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>62.97745769620184</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>110.9699204828253</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
@@ -24193,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>201.5437757060154</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>152.3195699869349</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24385,7 +24387,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>4.552626901751122</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>118.5727835600595</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>92.48975953791796</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>192.1747295164259</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24609,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>152.1665109818896</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24680,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24689,13 +24691,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>46.15128125120827</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>24.79434628022003</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>6.618494972821424</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24917,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>227.8352342700394</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24971,16 +24973,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.04094380275501</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25132,7 +25134,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.0045570257506</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>103.421478775927</v>
       </c>
       <c r="H35" t="n">
-        <v>295.4822519294664</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25333,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.47006878145163</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>268.2698982842869</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275521</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25561,7 +25563,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>143.4928190663389</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>75.97706831454821</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25676,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>241.1024832152385</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>46.98132354508786</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9092452792957</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.695971719730778</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25931,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>38.27853530143747</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26029,22 +26031,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>56.53498370500749</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655756.5032325559</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655756.5032325557</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655756.5032325557</v>
+        <v>655756.5032325559</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655756.5032325558</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655756.5032325563</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655756.503232556</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738801.6419670254</v>
+        <v>655756.5032325557</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738801.6419670254</v>
+        <v>655756.5032325558</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655756.5032325562</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655756.5032325559</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655756.5032325562</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655756.5032325563</v>
+        <v>655756.5032325559</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655756.5032325562</v>
+        <v>655756.5032325558</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655756.5032325558</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528476.2654736958</v>
+        <v>655756.503232556</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="C2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="E2" t="n">
         <v>191980.2613012999</v>
@@ -26329,22 +26331,22 @@
         <v>191980.2613012999</v>
       </c>
       <c r="H2" t="n">
-        <v>216278.5473416247</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416247</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="J2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="K2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="L2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="M2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="N2" t="n">
         <v>191980.2613012999</v>
@@ -26353,7 +26355,7 @@
         <v>191980.2613012998</v>
       </c>
       <c r="P2" t="n">
-        <v>154739.1696314552</v>
+        <v>191980.2613012998</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="C4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="D4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="E4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="F4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="G4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="H4" t="n">
-        <v>65070.2855682401</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="I4" t="n">
-        <v>65070.2855682401</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="J4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="K4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="O4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="P4" t="n">
-        <v>46381.36119596973</v>
+        <v>57691.1269371254</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133492.1289047437</v>
+        <v>-133492.1289047435</v>
       </c>
       <c r="C6" t="n">
-        <v>64703.67708700124</v>
+        <v>64703.67708700136</v>
       </c>
       <c r="D6" t="n">
-        <v>64703.67708700124</v>
+        <v>64703.67708700136</v>
       </c>
       <c r="E6" t="n">
+        <v>98331.27708700138</v>
+      </c>
+      <c r="F6" t="n">
+        <v>98331.27708700141</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98331.27708700135</v>
+      </c>
+      <c r="H6" t="n">
         <v>98331.27708700133</v>
       </c>
-      <c r="F6" t="n">
-        <v>98331.2770870013</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>98331.27708700138</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-56408.15727860204</v>
+      </c>
+      <c r="K6" t="n">
+        <v>98331.27708700132</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98331.27708700135</v>
+      </c>
+      <c r="M6" t="n">
         <v>98331.27708700136</v>
       </c>
-      <c r="H6" t="n">
-        <v>54062.29251085273</v>
-      </c>
-      <c r="I6" t="n">
-        <v>103997.7247182569</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-7983.878531510469</v>
-      </c>
-      <c r="K6" t="n">
-        <v>98331.27708700136</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98331.27708700136</v>
-      </c>
-      <c r="M6" t="n">
-        <v>98331.27708700125</v>
-      </c>
       <c r="N6" t="n">
-        <v>98331.27708700133</v>
+        <v>98331.27708700138</v>
       </c>
       <c r="O6" t="n">
-        <v>98331.2770870013</v>
+        <v>98331.27708700132</v>
       </c>
       <c r="P6" t="n">
-        <v>83652.630936267</v>
+        <v>98331.27708700132</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>180.451438245074</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>24.02725130588939</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>127.593836910896</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34954,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>330.4341341043866</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>24.02725130588952</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>503.4202726513632</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>314.7944296574898</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>497.9396303685323</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,10 +35661,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>259.1834758025645</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35893,16 +35895,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>501.1818197774801</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36136,10 +36138,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36376,7 +36378,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>292.470543168895</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36844,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>148.740562094078</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048594</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>327.4053600553999</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553806</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37309,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583866</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>302.9262961593795</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37552,16 +37554,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>127.5938369108961</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>180.451438245074</v>
+        <v>199.9647617065627</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>316.9893628657432</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>529.2029588809064</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736885</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5334082462359</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>260.7596670179002</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>122.2939224881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464517.8280651653</v>
+        <v>458809.6722572787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462389</v>
+        <v>3854815.050462385</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7582593.0586675</v>
+        <v>7582593.058667501</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>34.231161112476</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>151.4547340816844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>177.3207065014959</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>139.453810411355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -958,13 +958,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>112.223973418865</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881444</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>281.1958172035847</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>55.70234506053614</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047342</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10.00839626106843</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.63990273888884</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>157.6831935458309</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1438,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>66.64301910339012</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.6327140501638</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>124.4838908307666</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1824,10 +1824,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9453936793723</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>161.4085122120583</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1906,13 +1906,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>127.7349619690958</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>322.5806213200719</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>251.4913386353452</v>
       </c>
     </row>
     <row r="21">
@@ -2244,25 +2244,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>19.72182071016206</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>61.29781535426363</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.52186057040795</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>316.5413684189589</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>30.2257422191677</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2778,7 +2778,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>209.8262535446769</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.81863829711325</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>128.5631274482085</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>239.7822091354104</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2666781675496</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.8763835457725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>305.6096491809498</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>128.5417822982108</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>42.22674935012078</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>140.76122967259</v>
+        <v>14.80146233387011</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.3149947016331</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>308.7393797385121</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>144.4555958010352</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>186.4812596630028</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>248.2092831288392</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>289.1043232126777</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010083</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>835.3376237683314</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C2" t="n">
         <v>835.3376237683314</v>
@@ -4315,67 +4315,67 @@
         <v>449.8964949849991</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.648505077179</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.13495001823</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577647</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012245</v>
+        <v>2331.071574660538</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715764</v>
+        <v>1988.964765364056</v>
       </c>
       <c r="W2" t="n">
-        <v>1377.774808715764</v>
+        <v>1617.965730332344</v>
       </c>
       <c r="X2" t="n">
-        <v>988.3222036488206</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.3376237683314</v>
+        <v>1228.513125265401</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N3" t="n">
-        <v>1701.875066013061</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>566.8320840766596</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>581.3509063575575</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C5" t="n">
-        <v>188.1754048604881</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>173.6308686433306</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>173.6308686433306</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>666.9511603618595</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1212.95206040644</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>1740.763344043902</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936231</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W5" t="n">
-        <v>1767.788966215297</v>
+        <v>1226.424346093342</v>
       </c>
       <c r="X5" t="n">
-        <v>1378.336361148353</v>
+        <v>1226.424346093342</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.8456520689545</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.21044521944</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C8" t="n">
-        <v>1179.21044521944</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D8" t="n">
-        <v>793.7693164361081</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E8" t="n">
-        <v>793.7693164361081</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F8" t="n">
-        <v>509.7331374425881</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
@@ -4819,37 +4819,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010236</v>
+        <v>840.8237710576924</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.705190930837</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>71.09994889437422</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>554.6660347926875</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.164039799289</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805891</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>212.9812734151375</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>212.9812734151375</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>212.9812734151375</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>212.9812734151375</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1007.337326116641</v>
+        <v>985.2055534585422</v>
       </c>
       <c r="C11" t="n">
-        <v>614.1618246195715</v>
+        <v>592.0300519614727</v>
       </c>
       <c r="D11" t="n">
-        <v>228.7206958362392</v>
+        <v>206.5889231781405</v>
       </c>
       <c r="E11" t="n">
-        <v>228.7206958362392</v>
+        <v>206.5889231781405</v>
       </c>
       <c r="F11" t="n">
-        <v>228.7206958362392</v>
+        <v>206.5889231781405</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6500870090788</v>
+        <v>206.5889231781405</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>503.6092283712866</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712866</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511778</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.788966215297</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.789931183584</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.337326116641</v>
+        <v>1381.696262537941</v>
       </c>
       <c r="Y11" t="n">
-        <v>1007.337326116641</v>
+        <v>985.2055534585422</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K12" t="n">
-        <v>160.427952321271</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L12" t="n">
-        <v>160.427952321271</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M12" t="n">
-        <v>745.9259573278729</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
         <v>2341.731461975244</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>596.0050199724818</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>596.0050199724818</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>596.0050199724818</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154359</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154359</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154359</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154359</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712866</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415867</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.421412053329</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O14" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071195</v>
+        <v>2016.406598767136</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774713</v>
+        <v>2016.406598767136</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743001</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="X14" t="n">
-        <v>783.8367236760574</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="Y14" t="n">
-        <v>387.3460145966586</v>
+        <v>1645.407563735423</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.3129701015436</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154359</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154359</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154359</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154359</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154359</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.8874565312643</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7247010192675</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6416505857581</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>358.4764287842793</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L17" t="n">
-        <v>851.7967205028082</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M17" t="n">
-        <v>1397.797620547389</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N17" t="n">
-        <v>1925.608904184851</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2202.609603852878</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>1946.856874287477</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V17" t="n">
-        <v>1604.750064990995</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W17" t="n">
-        <v>1233.751029959283</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X17" t="n">
-        <v>844.2984248923394</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y17" t="n">
-        <v>447.8077158129405</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.492043226186</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N18" t="n">
-        <v>1229.492043226186</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>819.7347785328983</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>553.7554333537225</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1242.824038851968</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C20" t="n">
-        <v>849.6485373548981</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D20" t="n">
-        <v>464.2074085715658</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>464.2074085715658</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>358.4764287842793</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L20" t="n">
-        <v>851.7967205028082</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M20" t="n">
-        <v>1397.797620547389</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184851</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X20" t="n">
-        <v>2039.809493642763</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.318784563364</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5943,19 +5943,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1594.628716014141</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C23" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D23" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154359</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L23" t="n">
-        <v>503.6092283712866</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M23" t="n">
-        <v>1049.610128415867</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N23" t="n">
-        <v>1577.421412053329</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O23" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2307.734560342335</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2307.734560342335</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V23" t="n">
-        <v>1965.627751045854</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W23" t="n">
-        <v>1594.628716014141</v>
+        <v>1277.86490979496</v>
       </c>
       <c r="X23" t="n">
-        <v>1594.628716014141</v>
+        <v>1277.86490979496</v>
       </c>
       <c r="Y23" t="n">
-        <v>1594.628716014141</v>
+        <v>1277.86490979496</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>228.7257403408551</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>73.0926272433698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6171,28 +6171,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U25" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>622.0429194582225</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W25" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1579.705190930837</v>
+        <v>1703.660243210722</v>
       </c>
       <c r="C26" t="n">
-        <v>1186.529689433768</v>
+        <v>1310.484741713652</v>
       </c>
       <c r="D26" t="n">
-        <v>1186.529689433768</v>
+        <v>1310.484741713652</v>
       </c>
       <c r="E26" t="n">
-        <v>783.9461645503122</v>
+        <v>907.9012168301967</v>
       </c>
       <c r="F26" t="n">
-        <v>367.05172608029</v>
+        <v>491.0067783601745</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>77.84402284817764</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>77.84402284817764</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010236</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y26" t="n">
-        <v>1579.705190930837</v>
+        <v>2104.154988922119</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6414,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>330.643372170366</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>853.6512271106099</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C29" t="n">
-        <v>460.4757256135405</v>
+        <v>968.782859969574</v>
       </c>
       <c r="D29" t="n">
-        <v>460.4757256135405</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="E29" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
@@ -6478,37 +6478,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2352.700385585146</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2352.700385585146</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2352.700385585146</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2352.700385585146</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2010.593576288664</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W29" t="n">
-        <v>1639.594541256952</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X29" t="n">
-        <v>1250.141936190009</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y29" t="n">
-        <v>853.6512271106099</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1065.665103390099</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6648,25 +6648,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>460.5051170675463</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>330.643372170366</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.663050286384</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.663050286384</v>
+        <v>613.6002721869827</v>
       </c>
       <c r="D32" t="n">
-        <v>1183.221921503051</v>
+        <v>613.6002721869827</v>
       </c>
       <c r="E32" t="n">
-        <v>780.6383966195958</v>
+        <v>613.6002721869827</v>
       </c>
       <c r="F32" t="n">
-        <v>363.7439581495736</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>371.4442765563895</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y32" t="n">
-        <v>1969.157795997781</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.14176221491</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.648505077179</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V34" t="n">
-        <v>2099.669159898004</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W34" t="n">
-        <v>1816.338757829181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>1582.258435612164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1568.663050286384</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="C35" t="n">
-        <v>1175.487548789314</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="D35" t="n">
-        <v>1175.487548789314</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="E35" t="n">
-        <v>772.9040239058586</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="F35" t="n">
-        <v>356.0095854358364</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>501.2362046746599</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>177.1531542411505</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L35" t="n">
-        <v>851.7967205028082</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M35" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y35" t="n">
-        <v>1969.157795997781</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
         <v>2341.731461975244</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7119,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U37" t="n">
-        <v>343.6705854546174</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V37" t="n">
-        <v>77.69124027544164</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1402.149495227434</v>
+        <v>1274.917407006505</v>
       </c>
       <c r="C38" t="n">
-        <v>1008.973993730365</v>
+        <v>881.7419055094356</v>
       </c>
       <c r="D38" t="n">
-        <v>1008.973993730365</v>
+        <v>881.7419055094356</v>
       </c>
       <c r="E38" t="n">
-        <v>606.3904688469092</v>
+        <v>479.1583806259801</v>
       </c>
       <c r="F38" t="n">
-        <v>189.496030376887</v>
+        <v>62.26394215595786</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T38" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U38" t="n">
-        <v>2199.13495001823</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V38" t="n">
-        <v>2199.13495001823</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W38" t="n">
-        <v>2199.13495001823</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="X38" t="n">
-        <v>2199.13495001823</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="Y38" t="n">
-        <v>1802.644240938831</v>
+        <v>1675.412152717902</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
         <v>160.427952321271</v>
@@ -7259,19 +7259,19 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1065.665103390099</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.163108396701</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>2167.683390987682</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7362,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W40" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1256.234751994065</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="C41" t="n">
-        <v>863.0592504969959</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="D41" t="n">
-        <v>863.0592504969959</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="E41" t="n">
-        <v>460.4757256135405</v>
+        <v>776.0653679033962</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>359.170929433374</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712866</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415867</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.421412053329</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O41" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V41" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W41" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X41" t="n">
-        <v>2053.220206784861</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y41" t="n">
-        <v>1656.729497705462</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
@@ -7499,13 +7499,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N42" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
         <v>2131.283413522289</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7593,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>400.7750426933993</v>
       </c>
       <c r="W43" t="n">
-        <v>161.6228038740554</v>
+        <v>400.7750426933993</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>400.7750426933993</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>400.7750426933993</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1673.129190464088</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C44" t="n">
         <v>1279.953688967018</v>
@@ -7639,61 +7639,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>318.7636682303378</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y44" t="n">
-        <v>2073.623936175485</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>305.4650404492648</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>789.031126347578</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.52913135418</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N45" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
         <v>2365.648505077179</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7839,19 +7839,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>663.3212008849971</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V46" t="n">
-        <v>397.3418557058213</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W46" t="n">
-        <v>114.011453636999</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,22 +8057,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>116.7148101947783</v>
+        <v>167.9390098072631</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>245.2736748532421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8233,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>593.5689418267924</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>400.3730943507983</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6241866392229</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,13 +8692,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>457.8528328367271</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703143049</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>553.2668652653155</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8932,7 +8932,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>556.6502691852513</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>377.8426560230614</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3649271011926</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9245,25 +9245,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>593.869378666369</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,7 +9403,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>457.3649271011926</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L23" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9655,7 +9655,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>385.1581020577839</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>390.0096609786938</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10126,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>399.6354845339695</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10196,22 +10196,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>230.298030859026</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4637632346373</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046925</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,10 +10588,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>603.2495781888783</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10603,10 +10603,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>388.2984090135462</v>
+        <v>179.0738312465426</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,7 +10825,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10837,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P38" t="n">
-        <v>277.8952841518213</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10907,22 +10907,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>287.0481265258774</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>614.1534811140705</v>
+        <v>457.1386964627902</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11077,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11147,16 +11147,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N42" t="n">
-        <v>151.5659933015355</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11299,10 +11299,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>271.1401458256677</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>350.3566023512336</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,7 +22549,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>218.9640411572714</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0710679069205</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.04115481195228</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>242.1329070841439</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>255.0650712625304</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>131.5296768817373</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>336.8234569280688</v>
       </c>
     </row>
     <row r="9">
@@ -23184,10 +23184,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>144.068385705442</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>366.391225217988</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>163.1590263833434</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,10 +23427,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>196.6765326239939</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.85708420411913</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>128.7113114389807</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0.008352059087485486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>59.85708420411922</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23943,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>154.8494418714222</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>62.97745769620184</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>141.0344633532596</v>
       </c>
     </row>
     <row r="21">
@@ -24132,25 +24132,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>201.5437757060154</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>305.9912293271318</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24366,10 +24366,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24387,7 +24387,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>4.552626901751122</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>92.48975953791796</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>106.7280035192921</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,22 +24682,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>188.731436089944</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>24.79434628022003</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24888,19 +24888,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.7564242791755</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>172.9432849499116</v>
       </c>
       <c r="G32" t="n">
-        <v>95.76444978932722</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25128,10 +25128,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.0045570257506</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>103.421478775927</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>8.411963440248996</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25335,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>240.3576544903973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>268.2698982842869</v>
+        <v>394.2296656230067</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.04094380275521</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25602,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>100.2917482183648</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>241.1024832152385</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>76.83829206438122</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>118.5727835600601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>141.0344633532595</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.4214787759271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26079,7 +26079,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947459</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655756.5032325562</v>
+        <v>655756.5032325563</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655756.5032325559</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655756.5032325562</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655756.5032325557</v>
+        <v>655756.503232556</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655756.5032325558</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655756.503232556</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655756.503232556</v>
+        <v>655756.5032325563</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655756.503232556</v>
+        <v>655756.5032325563</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655756.5032325559</v>
+        <v>655756.5032325563</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655756.5032325558</v>
+        <v>655756.5032325562</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655756.503232556</v>
+        <v>655756.5032325559</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="C2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="E2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="F2" t="n">
+        <v>191980.2613012998</v>
+      </c>
+      <c r="G2" t="n">
+        <v>191980.2613012998</v>
+      </c>
+      <c r="H2" t="n">
         <v>191980.2613012999</v>
       </c>
-      <c r="G2" t="n">
-        <v>191980.2613012999</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>191980.2613012998</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191980.2613012999</v>
       </c>
       <c r="J2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="K2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="L2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="M2" t="n">
+        <v>191980.2613012998</v>
+      </c>
+      <c r="N2" t="n">
+        <v>191980.2613012998</v>
+      </c>
+      <c r="O2" t="n">
         <v>191980.2613012999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191980.2613012999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>191980.2613012998</v>
-      </c>
-      <c r="P2" t="n">
-        <v>191980.2613012998</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="H4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="L4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="N4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="O4" t="n">
         <v>57691.1269371254</v>
       </c>
-      <c r="C4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="P4" t="n">
         <v>57691.12693712541</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="F4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="G4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="H4" t="n">
-        <v>57691.12693712539</v>
-      </c>
-      <c r="I4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="J4" t="n">
-        <v>57691.12693712539</v>
-      </c>
-      <c r="K4" t="n">
-        <v>57691.12693712541</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57691.12693712539</v>
-      </c>
-      <c r="N4" t="n">
-        <v>57691.1269371254</v>
-      </c>
-      <c r="O4" t="n">
-        <v>57691.12693712541</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57691.1269371254</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133492.1289047435</v>
+        <v>-134166.1550309638</v>
       </c>
       <c r="C6" t="n">
-        <v>64703.67708700136</v>
+        <v>64029.6509607812</v>
       </c>
       <c r="D6" t="n">
-        <v>64703.67708700136</v>
+        <v>64029.6509607812</v>
       </c>
       <c r="E6" t="n">
-        <v>98331.27708700138</v>
+        <v>97657.25096078133</v>
       </c>
       <c r="F6" t="n">
-        <v>98331.27708700141</v>
+        <v>97657.25096078121</v>
       </c>
       <c r="G6" t="n">
-        <v>98331.27708700135</v>
+        <v>97657.25096078127</v>
       </c>
       <c r="H6" t="n">
-        <v>98331.27708700133</v>
+        <v>97657.2509607813</v>
       </c>
       <c r="I6" t="n">
-        <v>98331.27708700138</v>
+        <v>97657.25096078127</v>
       </c>
       <c r="J6" t="n">
-        <v>-56408.15727860204</v>
+        <v>-57082.18340482218</v>
       </c>
       <c r="K6" t="n">
-        <v>98331.27708700132</v>
+        <v>97657.25096078127</v>
       </c>
       <c r="L6" t="n">
-        <v>98331.27708700135</v>
+        <v>97657.25096078133</v>
       </c>
       <c r="M6" t="n">
-        <v>98331.27708700136</v>
+        <v>97657.25096078127</v>
       </c>
       <c r="N6" t="n">
-        <v>98331.27708700138</v>
+        <v>97657.25096078127</v>
       </c>
       <c r="O6" t="n">
-        <v>98331.27708700132</v>
+        <v>97657.2509607813</v>
       </c>
       <c r="P6" t="n">
-        <v>98331.27708700132</v>
+        <v>97657.25096078136</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>24.02725130588939</v>
+        <v>75.25145091837423</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>127.593836910896</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34953,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="N6" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>250.0716471098731</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>24.02725130588952</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>314.7944296574898</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698097147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>467.8947524111488</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>407.086431761155</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>314.3065239219553</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35965,25 +35965,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>501.1818197774801</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>314.3065239219553</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L23" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36375,7 +36375,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>292.470543168895</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>302.9262961593791</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>250.0716471098731</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>144.9259180048594</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>327.4053600553999</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553806</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>450.0014084583866</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37323,10 +37323,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>302.9262961593795</v>
+        <v>93.70171839237591</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37557,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P38" t="n">
-        <v>127.5938369108961</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>199.9647617065627</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>460.9053113835787</v>
+        <v>303.8905267322986</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N42" t="n">
-        <v>66.19388044736885</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38019,10 +38019,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>128.0817426464304</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38031,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>260.7596670179002</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
